--- a/Base/Teams/Patriots/Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/Target Depth Data.xlsx
@@ -450,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>122</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C3">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>9</v>

--- a/Base/Teams/Patriots/Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C3">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>11</v>

--- a/Base/Teams/Patriots/Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="C2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>10</v>

--- a/Base/Teams/Patriots/Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="C2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Patriots/Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>10</v>
